--- a/Tables/Top_Gemma_Candidates.xlsx
+++ b/Tables/Top_Gemma_Candidates.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/srp33/GitRepos/GEO_NLP/Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E429447-6C5C-7E4E-85C0-BCE00C60BD1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9586EBB8-C373-314F-B698-02A3BC7E8FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1700,8 +1700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/Tables/Top_Gemma_Candidates.xlsx
+++ b/Tables/Top_Gemma_Candidates.xlsx
@@ -1,26 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10811"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/srp33/GitRepos/GEO_NLP/Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9586EBB8-C373-314F-B698-02A3BC7E8FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B36EE51B-7758-064B-94F5-95FD0593F92D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$26</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="192">
   <si>
     <t>Query</t>
   </si>
@@ -49,6 +65,12 @@
     <t>Strong case</t>
   </si>
   <si>
+    <t>Curator's notes</t>
+  </si>
+  <si>
+    <t>Accept?</t>
+  </si>
+  <si>
     <t>Juvenile idiopathic arthritis</t>
   </si>
   <si>
@@ -64,19 +86,79 @@
     <t>PBMC from 59 healthy children and 136 JIA subjects (28 enthesitis-related arthritis[ERA], 42 persistent oligoarthritis, 45 RF- polyarthritis, and 21 systemic) were isolated on Ficoll.  Poly-A RNA was labeled using NuGEN Ovation and gene expression profiles were obtained using Affymetrix HG-U133 plus 2.0 Arrays</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">male; biotin; European; female; Asian; sexually immature stage; peripheral blood mononuclear cell; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>arthritic joint disease</t>
+    </r>
+  </si>
+  <si>
+    <t>The summary suggests that this series is relevant. In the Mondo Disease Ontology, "juvenile idiopathic arthritis" is a sub-class of "arthritic joint disease."</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, this should be annotated as JIA. </t>
+  </si>
+  <si>
+    <t>Yes - DONE</t>
+  </si>
+  <si>
+    <t>GSE15573</t>
+  </si>
+  <si>
+    <t>Immunity and Defense Genes in Peripheral Blood Mononuclear Cells of Rheumatoid Arthritis patients</t>
+  </si>
+  <si>
+    <t>Large-scale gene expression profiling of peripheral blood mononuclear cells from Rheumatoid Arthritis (RA) patients could provide a molecular description that reflects the contribution of diverse cellular responses associated with this disease. The aim of our study is to identify peripheral blood gene expression profiles for RA patients, using Illumina technology, to gain insights into RA molecular mechanisms. The Illumina Human-6v2 Expression BeadChips were used for a complete genome-wide transcript profiling of peripheral blood mononuclear cells from 18 RA patients and 15 Controls. Differential analysis per gene was performed with one-way analysis of variance (ANOVA) and P values were adjusted to control the False Discovery Rate (FDR&lt;5%). Genes differentially expressed at significant level between patients and controls were analyzed using Gene Ontology (GO) in the PANTHER database to identify biological processes. A differentially expression of 339 Reference Sequence genes (238 down-regulated and 101 up-regulated) between the two groups was observed. We identified a remarkably elevated expression of a spectrum of genes involved in Immunity and Defense in peripheral blood mononuclear cells of RA patients compared to Controls. This result is confirmed by GO analysis, suggesting that these genes could be activated systemically in RA. No significant down-regulated ontology groups were found. Microarrays data were validated by real time PCR in a set of nine genes showing a high degree of correlation. Our study highlighted several new genes that could contribute in the identification of innovative clinical biomarkers for diagnostic procedures and therapeutic intervention. Further studies on larger scale groups of patients should be performed with the same technology to replicate these results and to allow clinical stratification.</t>
+  </si>
+  <si>
+    <t>33 samples analyzed corresponding to 18 Rheumatoid Arthritis Patients and 15 Controls</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">biotin; female; male; blood; peripheral blood mononuclear cell; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>rheumatoid arthritis</t>
+    </r>
+  </si>
+  <si>
+    <t>JIA and RA are fairly closely connected in the Experimental Factor Ontology.</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
-    <t>GSE15573</t>
-  </si>
-  <si>
-    <t>Immunity and Defense Genes in Peripheral Blood Mononuclear Cells of Rheumatoid Arthritis patients</t>
-  </si>
-  <si>
-    <t>Large-scale gene expression profiling of peripheral blood mononuclear cells from Rheumatoid Arthritis (RA) patients could provide a molecular description that reflects the contribution of diverse cellular responses associated with this disease. The aim of our study is to identify peripheral blood gene expression profiles for RA patients, using Illumina technology, to gain insights into RA molecular mechanisms. The Illumina Human-6v2 Expression BeadChips were used for a complete genome-wide transcript profiling of peripheral blood mononuclear cells from 18 RA patients and 15 Controls. Differential analysis per gene was performed with one-way analysis of variance (ANOVA) and P values were adjusted to control the False Discovery Rate (FDR&lt;5%). Genes differentially expressed at significant level between patients and controls were analyzed using Gene Ontology (GO) in the PANTHER database to identify biological processes. A differentially expression of 339 Reference Sequence genes (238 down-regulated and 101 up-regulated) between the two groups was observed. We identified a remarkably elevated expression of a spectrum of genes involved in Immunity and Defense in peripheral blood mononuclear cells of RA patients compared to Controls. This result is confirmed by GO analysis, suggesting that these genes could be activated systemically in RA. No significant down-regulated ontology groups were found. Microarrays data were validated by real time PCR in a set of nine genes showing a high degree of correlation. Our study highlighted several new genes that could contribute in the identification of innovative clinical biomarkers for diagnostic procedures and therapeutic intervention. Further studies on larger scale groups of patients should be performed with the same technology to replicate these results and to allow clinical stratification.</t>
-  </si>
-  <si>
-    <t>33 samples analyzed corresponding to 18 Rheumatoid Arthritis Patients and 15 Controls</t>
+    <t xml:space="preserve">This experiment looks at rheumatoid arthritis specifically, and doesn't specify the developmental stage of the patients. Despite being close in EFO, the curator will choose this term as it most closely matches what the experiment was focused on. </t>
   </si>
   <si>
     <t>GSE8650</t>
@@ -91,6 +173,36 @@
     <t>123 RNA samples extracted from PBMCs were studied. For more details on the clinical information, please refer to the paper (PudMed ID...).</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">female; European; biotin; male; Asian; Hispanic or Latin American; peripheral blood mononuclear cell; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>systemic juvenile idiopathic arthritis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>; pyogenic arthritis-pyoderma gangrenosum-acne syndrome; systemic lupus erythematosus</t>
+    </r>
+  </si>
+  <si>
     <t>Neuroblastoma</t>
   </si>
   <si>
@@ -103,6 +215,36 @@
     <t>Gene expression data from BE(2)-C cells treated in triplicate with either vehicle (DMSO), 5 Î¼M all-trans retinoic acid (ATRA), 1 mM valproic acid (VPA), or 5 Î¼M ATRA + 1 mM VPA for 6, 24, or 72 hours. Genome-wide expression profiling was performed using Affymetrix U133A microarrays.|While cytotoxic chemotherapy remains the hallmark of cancer treatment, intensive regimens fall short in many malignancies, including high-risk neuroblastoma. One alternative strategy is to therapeutically promote tumor differentiation. We created a gene expression signature to measure neuroblast maturation, adapted it to a high-throughput platform, and screened a diversity oriented synthesis-generated small-molecule library for differentiation inducers. We identified BRD8430, containing a nine-membered lactam, an ortho-amino anilide functionality, and three chiral centers, as a selective Class I histone deacetylase (HDAC) inhibitor (HDAC1 &gt; 2 &gt; 3). Further investigation demonstrated that selective HDAC1/HDAC2 inhibition using compounds or RNA interference induced differentiation and decreased viability in neuroblastoma cell lines. Combined treatment with 13-cis retinoic acid augmented these effects and enhanced activation of retinoic acid signaling. Therefore, by applying a chemical genomic screening approach we identified selective HDAC1/HDAC2 inhibition as a strategy to induce neuroblastoma differentiation.</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>BE(2)-C cells</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> were treated in triplicate with either vehicle (DMSO), 5 Î¼M all-trans retinoic acid (ATRA), 1 mM valproic acid (VPA), or 5 Î¼M ATRA + 1 mM VPA for 6, 24, or 72 hours. Genome-wide expression profiling was performed using Affymetrix U133A microarrays [HT-HG_U133A Early Access].</t>
+    </r>
+  </si>
+  <si>
+    <t>biotin; dimethyl sulfoxide; BE(2)-C cell; valproic acid; all-trans-retinoic acid</t>
+  </si>
+  <si>
+    <t>BE(2)-C cells "isolated from the brain of a male patient with neuroblastoma" (https://www.atcc.org/products/crl-2268). It would seem consistent to tag this study with neuroblastoma because other studies with this tag have profiled neuroblastoma cell lines.</t>
+  </si>
+  <si>
+    <t>If the cell line comes from a patient with neuroblastoma, we don't tag neuroblastoma because this information is already contained in the cell line information. If there was no ontology term for BE(2)-C, then we would tag "neuroblastoma" but this is not the case.</t>
+  </si>
+  <si>
     <t>Triple negative breast carcinoma</t>
   </si>
   <si>
@@ -118,262 +260,13 @@
     <t>Global gene transcription profiling was performed in MDA-MB-157, MDA-MB-231 and MDA-MB-468 cell lines treated with DMSO, Thalidomide (1000 nmol/L), BETi-211 (1000 nmol/L) or BETd-246 (100 nmol/L) for 3 hours. Independent biological replicates (such as DMSO1 and DMSO2) were analyzed for each cell line under each condition. Both DMSO- and Thalidomide-treated samples were used as controls.</t>
   </si>
   <si>
-    <t>GSE22785</t>
-  </si>
-  <si>
-    <t>Integrated genome, transcriptome and translatome profiling of neuroblastoma cells</t>
-  </si>
-  <si>
-    <t>Microarray-based genome-wide measurements of copy number alterations and of transcriptome variations are proposed for neuroblastoma prognosis and possible treatment choice. Nonetheless, they lack to provide clues on a neglected layer of systems-level changes, the translatome, whose variations are defined by the activity of the translational regulatory machinery.   Our study extends the conventional genome-wide approaches to translatome profiling in neuroblastoma, by means of polysomal sucrose gradient separation followed by microarray analysis.   The panel of fourteen parental (not subcloned) neuroblastoma cell lines used in the study includes: CHP-134, SIMA, NB-69, LAN-1, KELLY, CHP-126, CHP-212, SK-N-BE(2), IMR-32, SK-N-AS, SK-N-SH, STA-NB-7, STA-NB-1, STA-NB-10 cells. Each cell line has been profiled with high resolution array CGH analysis for copy number changes, and for transcriptome and translatome variations.   The integration of these three types of data sets obtained from the same cells can  provide information on the impact in neuroblastoma of a defined pattern of genomic lesions on both transcriptional and translational alterations of gene expression.</t>
-  </si>
-  <si>
-    <t>We analyzed the following human neuroblastoma cell lines: STA-NB-1, SK-N-AS, NB-69, KELLY, LAN-1, CHP-134, SK-N-SH, SK-N-BE(2), STA-NB-7, CHP-126, CHP-212, IMR-32, SIMA, STA-NB-10.</t>
-  </si>
-  <si>
-    <t>Down syndrome</t>
-  </si>
-  <si>
-    <t>GSE32527</t>
-  </si>
-  <si>
-    <t>DNA microarrays of Turner Syndrome induced pluripotent stem cells</t>
-  </si>
-  <si>
-    <t>Global gene expression profiling with DNA microarrays showed that 3 TS iPSC clones corresponding to the same patient showed a global gene expression pattern similar to ESCs and euploid iPSCs, and very different from donor cells .We detected transcriptomic changes between TS iPSCs and the other ESCs/iPSCs but these variations did not follow a pattern and in fact all pluripotent cell lines clustered together. For DNA microarray analysis, all cells were treated with Trizol, followed by RNA extraction and hybridization.</t>
-  </si>
-  <si>
-    <t>GSE46562</t>
-  </si>
-  <si>
-    <t>RNA-seq in neurons derived from iPSCs in controls and patients with schizophrenia and 22q11 del</t>
-  </si>
-  <si>
-    <t>GSE8866</t>
-  </si>
-  <si>
-    <t>The undifferentiated phenotype in neuroblastoma depends on Cyclin D1 and CDK4 activity</t>
-  </si>
-  <si>
-    <t>The Cell line IMR-32 at time point 0 and transiently transfected with siRNA against GFP, Cyclin D1 and CDK4 at time point 48 hours. All experiments are biological triplicates.</t>
-  </si>
-  <si>
-    <t>GSE19697</t>
-  </si>
-  <si>
-    <t>An expression profile that predicts the therapeutic response of the basal-like breast cancer to neoadjuvant chemotherapy</t>
-  </si>
-  <si>
-    <t>A gene expression signature characterizes expression data from breast cancer samples of patients with pathological complete response (pCR) or residual disease (RD) following the neoadjuvant trial.|Several gene expression profiles have been reported to predict breast cancer response to neoadjuvant chemotherapy. These studies often consider breast cancer as a homogeneous entity, although higher rates of pathologic complete response (pCR) are known to occur within the basal-like subclass. We postulated that profiles with higher predictive accuracy could be derived from a subset analysis of basal-like tumors in isolation. Using a previously described ââintrinsicââ signature to differentiate breast tumor subclasses, we identified 50 basal-like tumors from two independent clinical trials associated with gene expression profile data. 24 tumor data sets (included in this GEO submission) were derived from a 119-patient neoadjuvant trial at our institution and an additional 26 tumor data sets were identified from a published data set (Hess et al. J Clin Oncol 24:4236â4244, 2006). The combined 50 basal-like tumors were partitioned to form a 37 sample training set with 13 sequestered for validation. Clinical surveillance occurred for a mean of 26 months. We identified a 23-gene profile which predicted pCR in basal-like breast cancers with 92% predictive accuracy in the sequestered validation data set. Furthermore, distinct cluster of patients with high rates of cancer recurrence was observed based on cluster analysis with the 23-gene signature. Disease-free survival analysis of these three clusters revealed significantly reduced survival in the patients of this high recurrence cluster. We identified a 23- gene signature which predicts response of basal-like breast cancer to neoadjuvant chemotherapy as well as disease-free survival. This signature is independent of tissue collection method and chemotherapeutic regimen.|Keywords: Disease state analysis</t>
-  </si>
-  <si>
-    <t>Core biopsies were obtained from 86 patients prior to neoadjuvant therapy out of which 70 fulfilled the requirements to undergo expression analysis (24 of these 70 were used in the published analysis). pCR was defined as no residual invasive disease in the breast or lymph nodes. Residual in situ carcinoma was also considered as pCR. RNA was extracted from snap frozen 14-gauge core samples obtained from pre-treatment tumors. Specimens containing more than 40% of tumor on histological examination were analyzed.</t>
-  </si>
-  <si>
-    <t>Bipolar disorder</t>
-  </si>
-  <si>
-    <t>GSE54568</t>
-  </si>
-  <si>
-    <t>Expression data from human brain dorsolateral prefrontal cortex - including control samples and samples with major depression disorders (30 samples BA9_F)</t>
-  </si>
-  <si>
-    <t>30 total samples in 15 pairs were analyzed in postmortem tissue from the dorsolateral prefrontal cortex.</t>
-  </si>
-  <si>
-    <t>GSE54567</t>
-  </si>
-  <si>
-    <t>Expression data from human brain dorsolateral prefrontal cortex - including control samples and samples with major depression disorders (28 samples BA9_M)</t>
-  </si>
-  <si>
-    <t>28 total samples in 14 pairs were analyzed in postmortem tissue from the dorsolateral prefrontal cortex.</t>
-  </si>
-  <si>
-    <t>GSE54575</t>
-  </si>
-  <si>
-    <t>Expression data from human brain orbital ventral prefrontal cortex - including control samples and samples with major depression disorders (24 samples NY_BA47)</t>
-  </si>
-  <si>
-    <t>24 total samples in 12 pairs were analyzed in postmortem tissue from the orbital ventral prefrontal cortex.</t>
-  </si>
-  <si>
-    <t>Parkinson's disease</t>
-  </si>
-  <si>
-    <t>GSE33298</t>
-  </si>
-  <si>
-    <t>Gene expression analysis of human iPSC generated from pathogenic LRRK2 (G2019S) mutation bearing patients</t>
-  </si>
-  <si>
-    <t>Microarray gene expression profiling was done to:  (1) Compare global gene expression differences between wildtype fibroblasts and fibroblasts from patients bearing homozygous and heterozygous LRRK2 (G2019S) mutation;  (2) Compare global gene expression differences between wildtype iPSC and iPSC generated from LRRK2 (G2019S) homozygous and heterozygous patients; (3) Check that all iPSC generated from wildtype and patients fibroblasts are in fact similar to human pluripotent ESC.</t>
-  </si>
-  <si>
-    <t>GSE54570</t>
-  </si>
-  <si>
-    <t>Expression data from human brain dorsolateral prefrontal cortex - including control samples and samples with major depression disorders (26 samples NY_BA9)</t>
-  </si>
-  <si>
-    <t>26 total samples in 13 pairs were analyzed in postmortem tissue from the dorsolateral prefrontal cortex.</t>
-  </si>
-  <si>
-    <t>GSE216875</t>
-  </si>
-  <si>
-    <t>Reduced LYNX1 and epilepsy phenotype-related changes in transcriptome of human iPSC-derived neural progenitors modeling fragile X syndrome</t>
-  </si>
-  <si>
-    <t>In this study, we analyzed gene expression profile of human iPS cell-derived neural progenitors reprogrammed from somatic cells of 3 healthy subjects and 3 patients diagnosed with FXS using the Affymetrix ClariomTM D Human array.</t>
-  </si>
-  <si>
-    <t>GSE85579</t>
-  </si>
-  <si>
-    <t>Genomic Regulation of Invasion by STAT3 in Triple Negative Breast Cancer</t>
-  </si>
-  <si>
-    <t>GSE17612</t>
-  </si>
-  <si>
-    <t>Comparison of post-mortem tissue from brain BA10 region between schizophrenic and control patients.</t>
-  </si>
-  <si>
-    <t>Post-mortem derived BA10 tissue from 28 schizophrenic and 23 control patients were compared. Age, gender, post-mortem delay and pH of brain lysates data were also captured.</t>
-  </si>
-  <si>
-    <t>GSE36700</t>
-  </si>
-  <si>
-    <t>Gene expression profiles in synovial biopsies from patients with arthritis</t>
-  </si>
-  <si>
-    <t>Rheumatoid arthritis (RA) is an inflammatory joint disorder that results in progressive joint damage when insufficiently treated. In order to prevent joint destruction and functional disability in RA, early diagnosis and initiation of appropriate treatment with Disease-Modifying Antirheumatic Drugs (DMARDs) is needed. However, in daily clinical practice, patients may initially display symptoms of arthritis that do not fulfil the classification criteria for a definite diagnosis of RA, or any other joint disease, a situation called âUndifferentiated Arthritisâ (UA). Out of the patients with UA, 30 to 50% usually develop RA, and early identification of these remains a challenge.|At the present time, although several risk factors associated with the development of RA have been identified (6-9), a model that reliably predicts the probability of evolution of UA into RA in individual patients is lacking. In order to better identify early RA patients, an American College of Rheumatology (ACR)/European League Against Rheumatism (EULAR) collaboration recently developed new classification criteria. Although these criteria are more sensitive, the risk of over-diagnosis is an important issue to consider, especially in very early disease. In this context, the present study explores the feasibility of a molecular diagnosis of arthritis, based on the identification of disease-specific transcriptomic profiles in synovial biopsies from patients with arthritis according to the underlying condition.|In a previous study, we performed global analyses of gene expression in synovial biopsies from patients with RA, Systemic Lupus Erythematosus (SLE) and Osteoarthritis (OA), using high-density oligonucleotide spotted microarrays. We found that the gene expression profiles are strikingly different according to the underlying condition. Thus, the majority of the genes up-regulated in SLE are type I Interferon-inducible genes, as compared with the up-regulation genes involved in T cell and B cell activation in RA, and in extracellular matrix homeostasis in OA. Based on these results, similar analyses were performed in synovial biopsies from patients with seronegative arthritis (SA) and microcrystalline arthritis (MIC), in order to identify disease-specific molecular signatures.</t>
-  </si>
-  <si>
-    <t>GeneChipÂ® Human Genome U133 Plus 2.0 Arrays (Affymetrix UK Ltd., High Wycombe, UK) were hybridized in monoplicates with 10 Î¼g biotinylated cRNA, using synovial biopsy samples obtained in 4 patients with SA (based on the presence of psoriasis or x-ray evidence of sacro-iliacal joint involvement), 5 patients with MIC, based on the identification of urate or calcium pyrophosphate crystals in the synovial fluid, 7 patients with RA (ACR 1987 criteria), 4 patients with SLE (ACR criteria) and 5 patients with OA (based on x-ray evidence of osteoarthritis)</t>
-  </si>
-  <si>
-    <t>GSE149632</t>
-  </si>
-  <si>
-    <t>Phenotypic manifestation of alpha-synuclein strains from Parkinsonâs disease and multiple system atrophy in human dopaminergic neruons</t>
-  </si>
-  <si>
-    <t>Although Î±-synucleinis implicated in the pathogenesis of Parkinsonâs disease and related disorders, it remains unclear whether specific conformations or levels of Î±-synuclein assemblies are toxic and how they cause progressive loss of human dopaminergic neurons. To address this issue, we used iPSC-derived dopaminergic neurons with a-synuclein triplication or controls where endogenous Î±-synuclein was imprinted into synthetic or disease-relevant conformations. We used Î±-synuclein fibrils generated de novo or amplified from homogenates of brains affected with Parkinsonâs disease (n=3) .We found that a 2.5-fold increase in Î±-synuclein levels in Î±-synuclein gene triplication neurons promoted seeded aggregation in a dose and time-dependent fashion, which was associated with a further increase in Î±-synuclein gene expression.Transcriptomic analysis and isogenic correction of Î±-synuclein triplication revealed that intraneuronal Î±-synuclein levels solely and sufficiently explained vulnerability to cell death.</t>
-  </si>
-  <si>
-    <t>RNASeq experiment to compare the SNCA triplication iPSC lines (n=3 or 3 clones) or healthy control lines (n=3) at baseline and after induction of alpha-synuclein aggregation for 2 weeks. This was to investigate whether there are consistent changes upon synuclein aggregation in Triplication lines (clone 1, clone 3, clone 5) or healthy control lines (AH017, OX3, SFC840) when compared to their corresponding baseline (NSC) using the three different aggregation conditions (WTPFF, PDamp, MSAamp). A total of 24 different  human iPSC samples were sequenced on the Novaseq 6000 platform.</t>
-  </si>
-  <si>
-    <t>GSE178687</t>
-  </si>
-  <si>
-    <t>RNAseq analysis of DPSC-derived neurons from Neurotypical control subjects and PWS subjects</t>
-  </si>
-  <si>
-    <t>A major challenge to the study and treatment of neurogenetic syndromes is the difficulty in gaining access to live neurons from individuals with these disorders. Although other sources of stem cells are currently available for differentiation into neurons, these can involve invasive procedures and be difficult or expensive to generate limiting their use on a broad scale, especially for rare syndromes which may not be well represented in the local population.  Dental pulp stem cells (DPSC) are neural crest derived multipotent stem cells that reside deep the pulp of shed (baby) teeth and have the potential for broad use in the study of neurogenetic disease. Here, we use DPSC-derived neurons to investigate the transcriptional differences between neurotypical controls and Prader-Willi syndrome (PWS) conferred by uniparental disomy (UPD) versus deletion. Additionally, we investigated the increased autism incidence within the UPD genotype by sequencing PW-UPD patients with and without autism.  Using this data, we defined a PWS molecular signature and discovered a global reduction in mitochondrial transcripts in the PW-UPD +ASD neurons.</t>
-  </si>
-  <si>
-    <t>RNA-seq Analysis of DPSC derived neurons; 4 individuals per group of the following: neurotypical control, PWS deletion, PWS UPD -ASD, and PWS UPS +ASD</t>
-  </si>
-  <si>
-    <t>GSE211103</t>
-  </si>
-  <si>
-    <t>Tissue and cell-type specific molecular and functional signatures of 16p11.2 reciprocal genomic disorder across mouse brain and human neuronal models.</t>
-  </si>
-  <si>
-    <t>Chromosome 16p11.2 reciprocal genomic disorder due to recurrent copy number variants (CNVs) involves intellectual disability, autism spectrum disorder (ASD), and schizophrenia but the responsible mechanisms are not known. To systemically dissect molecular effects, we performed transcriptome profiling of 350 libraries from six tissues (cortex, cerebellum, striatum, liver, brown fat, white fat) in mouse models harboring CNVs of the syntenic 7qF3 region, as well as cellular, transcriptional, and single-cell analyses in 54 isogenic neural stem cell, induced neuron, and cerebral organoid models of CRISPR-engineered 16p11.2 CNVs. Transcriptome-wide differentially expressed genes were largely tissue, cell-type, and dosage specific, though more effects were shared between deletion and duplication and across tissue than expected by chance. The broadest effects were observed in the cerebellum (2163 differentially expressed genes) and the greatest enrichments were associated with synaptic pathways in mouse cerebellum and human induced neurons. Pathway and co-expression analyses identified energy and RNA metabolism as shared processes and enrichment for ASD-associated/loss-of-function constraint/FMRP gene sets. Intriguingly, reciprocal 16p11.2 dosage changes resulted in consistent decrements in neurite and electrophysiological features, while single-cell profiling of organoids showed reciprocal alterations to the proportions of excitatory and inhibitory GABAergic neurons. Both neuronal ratios and gene expression changes in our organoid analyses point most directly to calretinin GABAergic inhibitory neurons and the excitatory/inhibitory balance as targets of disruption in 16p11.2 carriers that may contribute to changes in neurodevelopmental and cognitive function.  Collectively, our data indicate the genomic disorder involves disruption of multiple contributing biological processes, with relative impacts that are context-specific.</t>
-  </si>
-  <si>
-    <t>bulk RNAseq based transcriptomic analyses of six tissues from 16p11.2 deletion and duplication as well as control mouse models; single cell RNAseq based transcriptomic analyses of human iPSC-derived 16p11.2 deletion and duplication as well as control organoids.</t>
-  </si>
-  <si>
-    <t>GSE18409</t>
-  </si>
-  <si>
-    <t>Expression data from Trk-overexpressing NB cell line SY5Y</t>
-  </si>
-  <si>
-    <t>SY5Y transfected with either full length TrkA- or TrkB cDNA or vector control were cultivated in the absence or presence of their ligands NGF and BDNF, respectively. At the indicated time points cells were harvested and analysed using Affymetrix U95Av2 chips.</t>
-  </si>
-  <si>
-    <t>GSE25931</t>
-  </si>
-  <si>
-    <t>Gene Expression Profiling of Human Embryonic Neural Stem Cells and Dopaminergic Neurons from Adult Human Substantia Nigra</t>
-  </si>
-  <si>
-    <t>Two-condition experiment: hENSC S vs. DA cells. Biological replicates: 2 hENSC, and 2 DA neuron samples from human substantia nigra cells.</t>
-  </si>
-  <si>
-    <t>GSE36321</t>
-  </si>
-  <si>
-    <t>Gene expression analysis of H9 hESC derived neuron stem cells (NSC) harboring pathogenic LRRK2 (G2019S) mutation</t>
-  </si>
-  <si>
-    <t>LRRK2 mutant NSC were treated with or without the LRRK2 kinase specific inhibitor (LRRK2-IN-1). Global gene expression analysis was performed to assess the overall similarity of gene expression profiles among three NSC groups (wildtype; LRRK2 mutant; LRRK2 mutant with inhibitor treatment).</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">male; biotin; European; female; Asian; sexually immature stage; peripheral blood mononuclear cell; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>arthritic joint disease</t>
-    </r>
-  </si>
-  <si>
-    <t>JIA and RA are fairly closely connected in the Experimental Factor Ontology.</t>
-  </si>
-  <si>
-    <t>In the Experimental Factor Ontology (EFO), "systemic juvenile idiopathic arthritis" is a sub-class of "juvenile idiopathic arthritis." This series is the only one in Gemma with this tag.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">female; European; biotin; male; Asian; Hispanic or Latin American; peripheral blood mononuclear cell; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>systemic juvenile idiopathic arthritis</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>; pyogenic arthritis-pyoderma gangrenosum-acne syndrome; systemic lupus erythematosus</t>
-    </r>
-  </si>
-  <si>
-    <t>biotin; dimethyl sulfoxide; BE(2)-C cell; valproic acid; all-trans-retinoic acid</t>
-  </si>
-  <si>
-    <t>It would seem consistent to tag this study with neuroblastoma because other studies with this tag have profiled neuroblastoma cell lines.</t>
-  </si>
-  <si>
-    <r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
       <t xml:space="preserve">SUBSET; 1000 nM; </t>
     </r>
     <r>
@@ -383,7 +276,6 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t>MDA-MB-468 cell</t>
     </r>
@@ -393,7 +285,6 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">; thalidomide; </t>
     </r>
@@ -404,7 +295,6 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t>MDA-MB-231 cell</t>
     </r>
@@ -414,7 +304,6 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">; </t>
     </r>
@@ -425,7 +314,6 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t>MDA-MB-157 cell</t>
     </r>
@@ -435,244 +323,153 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">; 100 nM </t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">LAN-1 cell; polyA RNA extract; total RNA; IMR-32 cell; SK-N-SH cell; RCB0487 cell; SIMA cell; KELLY cell; CHP-126 cell; SK-N-AS cell; RCB0480 cell; SK-N-BE(2) cell; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>neuroblastoma cell line</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>; CHP-212 cell</t>
-    </r>
-  </si>
-  <si>
-    <t>induced pluripotent stem cell line cell; schizophrenia; neuron; schizoaffective disorder; velocardiofacial syndrome</t>
-  </si>
-  <si>
-    <t>biotin; IMR-32 cell; CCND1 [human] cyclin D1; CDK4 [human] cyclin-dependent kinase 4; Knockdown</t>
-  </si>
-  <si>
-    <t>The summary (and paper) mention neuroblastoma tumors, but it appears those are from a different source. It appears this series contains data from neuroblastoma cell lines. It would seem consistent to tag this study with neuroblastoma because other studies with this tag have profiled neuroblastoma cell lines.</t>
-  </si>
-  <si>
-    <t>female; European; African American; biotin; anthracycline; zoledronic acid; chemotherapy</t>
-  </si>
-  <si>
-    <t>biotin; dorsolateral prefrontal cortex; Depression; major depressive disorder</t>
-  </si>
-  <si>
-    <t>ChatGPT: "Bipolar Disorder (BD) and Major Depressive Disorder (MDD) are both mood disorders that share some common features, particularly involving depressive episodes, but they are distinct conditions with different diagnostic criteria." The models likely identified similarities in the ways these conditions are portrayed in dataset descriptions.</t>
-  </si>
-  <si>
-    <t>biotin; Depression; dorsolateral prefrontal cortex; major depressive disorder</t>
-  </si>
-  <si>
-    <t>biotin; prefrontal cortex; Depression; major depressive disorder</t>
-  </si>
-  <si>
-    <t>biotin; induced pluripotent stem cell line cell; fibroblast; embryonic stem cell; LRRK2 [human] leucine-rich repeat kinase 2</t>
-  </si>
-  <si>
-    <t>This study has relevance to Parkinson's disease, but it is not clear whether the cells came from individuals with Parkinson's disease or just those who had mutations in LRRK2.</t>
-  </si>
-  <si>
-    <t>Maybe</t>
-  </si>
-  <si>
-    <t>ChatGPT: "Bipolar Disorder (BD) and Major Depressive Disorder (MDD) are both mood disorders that share some common features, particularly involving depressive episodes, but they are distinct conditions with different diagnostic criteria."</t>
-  </si>
-  <si>
-    <t>This is a study of fragile X syndrome. It is not directly relevant to Down syndrome, but it makes sense that it would be ranked highly. iPSCs are commonly studied in Down syndrome research.</t>
-  </si>
-  <si>
-    <t>biotin; neural progenitor cell; fragile X syndrome</t>
-  </si>
-  <si>
-    <t>MDA-MB-231 cell; breast cancer; HCC1143 cell; STAT3 [human] signal transducer and activator of transcription 3; HCC70 cell; MDA-MB-157 cell; MDA-MB-468 cell; Homozygous negative; MDAMB231 cell</t>
-  </si>
-  <si>
-    <t>It would make sense to tag this as triple negative breast cancer.</t>
-  </si>
-  <si>
-    <t>biotin; Brodmann (1909) area 10; schizophrenia; female; male</t>
-  </si>
-  <si>
-    <t>ChatGPT: "Schizophrenia and bipolar disorder are both complex psychiatric conditions that impact cognitive function, mood, and perception. Despite being distinct diagnoses, they share several features and have overlapping aspects in terms of symptoms, genetics, and potentially, their treatment." The models likely identified similarities in the ways these conditions are portrayed in the dataset descriptions.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">dopaminergic neuron; Overexpression; SNCA triplication; amyloid fibril; multiple system atrophy; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Parkinson disease</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>; SNCA [human] synuclein, alpha (non A4 component of amyloid precursor)</t>
-    </r>
-  </si>
-  <si>
-    <t>This is not a Down syndrome (DS) dataset. The word "syndrome" may have caught the model's attention. DS is conferred by trisomy, whereas PWS is conferred by disomy, so the textual similarity might have caught the model's attention. Autism spectrum disorder is much more common in people with DS than the general population, so there may have been mention of this in DS dataset descriptions.</t>
-  </si>
-  <si>
-    <t>This is not a Down syndrome (DS) dataset. Intellectual disability is a typical characteristic of people with DS and is surely mentioned in descriptions of DS datasets. Autism spectrum disorder is much more common in people with DS than the general population, so there may have been mention of this in DS dataset descriptions.</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>dopaminergic neuron; neuronal stem cell</t>
-  </si>
-  <si>
-    <t>biotin; derived from H9 embryonic stem cell; neuronal stem cell; LRRK2 [human] leucine-rich repeat kinase 2; Overexpression</t>
-  </si>
-  <si>
-    <t>The summary suggests that this series is relevant. In the Mondo Disease Ontology, "juvenile idiopathic arthritis" is a sub-class of "arthritic joint disease."</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">biotin; female; male; blood; peripheral blood mononuclear cell; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>rheumatoid arthritis</t>
-    </r>
-  </si>
-  <si>
-    <t>This study generated data from various syndromes associated with monosomies or trisomies, so it makes sense that it would be ranked highly, even though it is not a Down syndrome series.</t>
-  </si>
-  <si>
-    <t>This is not a Down syndrome series. The word "Syndrome" may have caught the model's attention. Additionally, iPSCs are often used to study Down syndrome as used in this study.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">According to the Mondo Ontology entry for basal-like breast carcinoma, it is a "biologic subset of breast carcinoma defined by high expression of genes characteristic of basal epithelial cells, including KRT5 and KRT17, annexin 8, CX3CL1, and TRIM29, and </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>usually by lack of expression of the estrogen receptor (ER), progesterone receptor (PR), and human epidermal growth factor receptor 2 (HER2)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>." It is not surprising that this study was scored highly, even though we cannot say it is directly relevant.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">male; biotin; female; synovial membrane of synovial joint  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>rheumatoid arthritis</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>; arthritic joint disease; non-steroidal anti-inflammatory drug; osteoarthritis; systemic lupus erythematosus; colchicine</t>
-    </r>
-  </si>
-  <si>
-    <t>This series is now tagged with the "Parkinson disease" term from the Mondo Disease Ontology. Perhaps it was tagged after I downloaded the list of series associated with this tag.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>BE(2)-C cells</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> were treated in triplicate with either vehicle (DMSO), 5 Î¼M all-trans retinoic acid (ATRA), 1 mM valproic acid (VPA), or 5 Î¼M ATRA + 1 mM VPA for 6, 24, or 72 hours. Genome-wide expression profiling was performed using Affymetrix U133A microarrays [HT-HG_U133A Early Access].</t>
-    </r>
-  </si>
-  <si>
-    <t>BE(2)-C cells "isolated from the brain of a male patient with neuroblastoma" (https://www.atcc.org/products/crl-2268). It would seem consistent to tag this study with neuroblastoma because other studies with this tag have profiled neuroblastoma cell lines.</t>
   </si>
   <si>
     <t>According to this paper (https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3532890/), MDA-MB-468, MDA-MB-231, and MDA-MB-157 are triple negative cell lines.
 In the Cell Line Ontology, these cell lines are children of the "immortal human breast-derived cell line cell" term. It does not classify them directly as triple-negative breast cancer cell lines.</t>
   </si>
   <si>
-    <r>
+    <t xml:space="preserve">You are correct in that these cell lines aren't linked to triple-negative breast cancer cell lines in the ontology. As curators we expect the cell lines to be associated with the correct disease in the ontology, so we don't check the 'tree graphs'. Since this is not correct in the ontology however, this would be something to bring up with the ontologies themselves. However, when you search up "triple negative breast cancer" on Gemma, experiments using these cell lines still show up even if the "triple negative breast carcinoma" tag is missing. </t>
+  </si>
+  <si>
+    <t>GSE22785</t>
+  </si>
+  <si>
+    <t>Integrated genome, transcriptome and translatome profiling of neuroblastoma cells</t>
+  </si>
+  <si>
+    <t>Microarray-based genome-wide measurements of copy number alterations and of transcriptome variations are proposed for neuroblastoma prognosis and possible treatment choice. Nonetheless, they lack to provide clues on a neglected layer of systems-level changes, the translatome, whose variations are defined by the activity of the translational regulatory machinery.   Our study extends the conventional genome-wide approaches to translatome profiling in neuroblastoma, by means of polysomal sucrose gradient separation followed by microarray analysis.   The panel of fourteen parental (not subcloned) neuroblastoma cell lines used in the study includes: CHP-134, SIMA, NB-69, LAN-1, KELLY, CHP-126, CHP-212, SK-N-BE(2), IMR-32, SK-N-AS, SK-N-SH, STA-NB-7, STA-NB-1, STA-NB-10 cells. Each cell line has been profiled with high resolution array CGH analysis for copy number changes, and for transcriptome and translatome variations.   The integration of these three types of data sets obtained from the same cells can  provide information on the impact in neuroblastoma of a defined pattern of genomic lesions on both transcriptional and translational alterations of gene expression.</t>
+  </si>
+  <si>
+    <t>We analyzed the following human neuroblastoma cell lines: STA-NB-1, SK-N-AS, NB-69, KELLY, LAN-1, CHP-134, SK-N-SH, SK-N-BE(2), STA-NB-7, CHP-126, CHP-212, IMR-32, SIMA, STA-NB-10.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">LAN-1 cell; polyA RNA extract; total RNA; IMR-32 cell; SK-N-SH cell; RCB0487 cell; SIMA cell; KELLY cell; CHP-126 cell; SK-N-AS cell; RCB0480 cell; SK-N-BE(2) cell; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>neuroblastoma cell line</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>; CHP-212 cell</t>
+    </r>
+  </si>
+  <si>
+    <t>It would seem consistent to tag this study with neuroblastoma because other studies with this tag have profiled neuroblastoma cell lines.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Same as GSE45587. If the cell line is derived from a patient with neuroblastoma, we will not tag it. </t>
+  </si>
+  <si>
+    <t>Down syndrome</t>
+  </si>
+  <si>
+    <t>GSE32527</t>
+  </si>
+  <si>
+    <t>DNA microarrays of Turner Syndrome induced pluripotent stem cells</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">We have generated iPSCs from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>monosomy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> X (Turner Syndrome), trisomy 8 (Warkany Syndrome 2), </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>trisomy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 13 (Patau Syndrome) and partial </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>trisomy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 11;22 (Emanuel Syndrome), using either skin fibroblasts from affected individuals or amniocytes from antenatal diagnostic tests. These cell lines stably maintain the karyotype of the donors and behave like embryonic stem cells (ESCs) in all tested assays. Turner Syndrome iPSCs were used for further studies including global gene expression analysis and tissue-specific directed differentiation. Multiple clones displayed lower levels of the pseudoautosomal genes ASMTL and PPP2R3B than the controls. Moreover, they could be transformed into neural-like, hepatocyte-like and heart-like cells but displayed insufficient up-regulation of the pseudoautosomal placental gene CSF2RA during embryoid body (EB) formation. These data support that abnormal organogenesis and early lethality in Turner Syndrome are not caused by a tissue-specific differentiation blockade but rather involves other abnormalities including impaired placentation.</t>
+    </r>
+  </si>
+  <si>
+    <t>Global gene expression profiling with DNA microarrays showed that 3 TS iPSC clones corresponding to the same patient showed a global gene expression pattern similar to ESCs and euploid iPSCs, and very different from donor cells .We detected transcriptomic changes between TS iPSCs and the other ESCs/iPSCs but these variations did not follow a pattern and in fact all pluripotent cell lines clustered together. For DNA microarray analysis, all cells were treated with Trizol, followed by RNA extraction and hybridization.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
       <t xml:space="preserve">biotin; pluripotent stem cell; periosteum; fibroblast; </t>
     </r>
     <r>
@@ -682,7 +479,6 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t>Turner syndrome</t>
     </r>
@@ -692,7 +488,6 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">; Ornithine transcarbamylase deficiency; amniocyte; chorionic mesenchymal villus; </t>
     </r>
@@ -703,7 +498,6 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t>Crigler-Najjar syndrome</t>
     </r>
@@ -713,81 +507,60 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">We have generated iPSCs from </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>monosomy</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> X (Turner Syndrome), trisomy 8 (Warkany Syndrome 2), </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>trisomy</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 13 (Patau Syndrome) and partial </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>trisomy</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 11;22 (Emanuel Syndrome), using either skin fibroblasts from affected individuals or amniocytes from antenatal diagnostic tests. These cell lines stably maintain the karyotype of the donors and behave like embryonic stem cells (ESCs) in all tested assays. Turner Syndrome iPSCs were used for further studies including global gene expression analysis and tissue-specific directed differentiation. Multiple clones displayed lower levels of the pseudoautosomal genes ASMTL and PPP2R3B than the controls. Moreover, they could be transformed into neural-like, hepatocyte-like and heart-like cells but displayed insufficient up-regulation of the pseudoautosomal placental gene CSF2RA during embryoid body (EB) formation. These data support that abnormal organogenesis and early lethality in Turner Syndrome are not caused by a tissue-specific differentiation blockade but rather involves other abnormalities including impaired placentation.</t>
-    </r>
-  </si>
-  <si>
-    <r>
+    <t>This study generated data from various syndromes associated with monosomies or trisomies, so it makes sense that it would be ranked highly, even though it is not a Down syndrome series.</t>
+  </si>
+  <si>
+    <t>Not mentioned in GEO and no samples with Down syndrome.</t>
+  </si>
+  <si>
+    <t>GSE46562</t>
+  </si>
+  <si>
+    <t>RNA-seq in neurons derived from iPSCs in controls and patients with schizophrenia and 22q11 del</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Individuals with 22q11.2 Deletion </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Syndrome</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (22q11.2 DS) are a specific high-risk group for developing schizophrenia (SZ), schizoaffective disorder (SAD) and autism spectrum disorders (ASD). Several genes in the deleted region have been implicated in the development of SZ, e.g., PRODH and DGCR8. However, the mechanistic connection between these genes and the neuropsychiatric phenotype remains unclear. To elucidate the molecular consequences of 22q11.2 deletion in early neural development, we carried out RNA-seq analysis to investigate gene expression in differentiating human neurons derived from induced pluripotent stem cells (iPSCs) of 22q11.2 DS SZ and SAD patients. Eight cases (ten iPSC-neuron samples in total including duplicate clones) and seven controls (nine in total including duplicate clones) were subject to RNA sequencing. Using a systems level analysis, differentially expressed genes/gene-modules and pathway of interests were identified. We observed ~2-fold reduction in expression of almost all genes in the 22q11.2 region in SZ (37 genes reached p-value &lt; 0.05, 36 of which reached a false discovery rate &lt; 0.05). Outside of the deleted region, 745 genes showed significant differences in expression between SZ and control neurons (p&lt;0.05). Function enrichment and network analysis of the differentially expressed genes uncovered converging evidence on abnormal expression in key functional pathways, such as apoptosis, cell cycle and survival, and MAPK signaling in the SZ and SAD samples.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
       <t xml:space="preserve">Eight cases (ten </t>
     </r>
     <r>
@@ -797,7 +570,6 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t>iPSC</t>
     </r>
@@ -807,39 +579,33 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t>-neuron samples in total including duplicate clones) and seven controls (nine in total including duplicate clones)</t>
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Individuals with 22q11.2 Deletion </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Syndrome</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (22q11.2 DS) are a specific high-risk group for developing schizophrenia (SZ), schizoaffective disorder (SAD) and autism spectrum disorders (ASD). Several genes in the deleted region have been implicated in the development of SZ, e.g., PRODH and DGCR8. However, the mechanistic connection between these genes and the neuropsychiatric phenotype remains unclear. To elucidate the molecular consequences of 22q11.2 deletion in early neural development, we carried out RNA-seq analysis to investigate gene expression in differentiating human neurons derived from induced pluripotent stem cells (iPSCs) of 22q11.2 DS SZ and SAD patients. Eight cases (ten iPSC-neuron samples in total including duplicate clones) and seven controls (nine in total including duplicate clones) were subject to RNA sequencing. Using a systems level analysis, differentially expressed genes/gene-modules and pathway of interests were identified. We observed ~2-fold reduction in expression of almost all genes in the 22q11.2 region in SZ (37 genes reached p-value &lt; 0.05, 36 of which reached a false discovery rate &lt; 0.05). Outside of the deleted region, 745 genes showed significant differences in expression between SZ and control neurons (p&lt;0.05). Function enrichment and network analysis of the differentially expressed genes uncovered converging evidence on abnormal expression in key functional pathways, such as apoptosis, cell cycle and survival, and MAPK signaling in the SZ and SAD samples.</t>
-    </r>
-  </si>
-  <si>
-    <r>
+    <t>induced pluripotent stem cell line cell; schizophrenia; neuron; schizoaffective disorder; velocardiofacial syndrome</t>
+  </si>
+  <si>
+    <t>This is not a Down syndrome series. The word "Syndrome" may have caught the model's attention. Additionally, iPSCs are often used to study Down syndrome as used in this study.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No down syndrome tag? </t>
+  </si>
+  <si>
+    <t>GSE8866</t>
+  </si>
+  <si>
+    <t>The undifferentiated phenotype in neuroblastoma depends on Cyclin D1 and CDK4 activity</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
       <t xml:space="preserve">Genomic aberrations of Cyclin D1 (CCND1) and CDK4 in neuroblastoma indicate that dysregulation of the G1 entry checkpoint is an important cell cycle aberration in this pediatric tumor. Here we report that analysis of Affymetrix expression data of </t>
     </r>
     <r>
@@ -849,7 +615,6 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t>primary neuroblastic tumors</t>
     </r>
@@ -859,7 +624,6 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> shows an extensive over-expression of Cyclin D1 and CDK4 which correlates with histological subgroups and prognosis respectively. Immunohistochemical analysis demonstrated an over-expression of Cyclin D1 in neuroblasts and a low Cyclin D1 expression in all cell types in ganglioneuroma. This suggests an involvement of G1 regulating genes in neuronal differentiation processes which we further evaluated using RNA interference against Cyclin D1 and its kinase partner CDK4 in </t>
     </r>
@@ -870,7 +634,6 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t>several neuroblastoma cell lines</t>
     </r>
@@ -880,20 +643,90 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t>. This resulted in pRb pathway inhibition as shown by an almost complete disappearance of CDK4 specific pRb phosphorylation; reduction of E2F transcriptional activity and a decrease of Cyclin A protein levels. The Cyclin D1 and CDK4  knock-down resulted in a significant reduction in cell proliferation, a G1 specific cell cycle arrest and moreover an extensive neuronal differentiation. Affymetrix microarray profiling of siRNA treated cells revealed a shift in expression profile towards a neuronal phenotype. Several new potential downstream players are identified. We conclude that neuroblastoma functionally depend on over-expression of G1 regulating genes to maintain their undifferentiated phenotype.|Keywords: Neuroblastoma, CCND1, Cyclin D1, CDK4</t>
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+    <t>The Cell line IMR-32 at time point 0 and transiently transfected with siRNA against GFP, Cyclin D1 and CDK4 at time point 48 hours. All experiments are biological triplicates.</t>
+  </si>
+  <si>
+    <t>biotin; IMR-32 cell; CCND1 [human] cyclin D1; CDK4 [human] cyclin-dependent kinase 4; Knockdown</t>
+  </si>
+  <si>
+    <t>The summary (and paper) mention neuroblastoma tumors, but it appears those are from a different source. It appears this series contains data from neuroblastoma cell lines. It would seem consistent to tag this study with neuroblastoma because other studies with this tag have profiled neuroblastoma cell lines.</t>
+  </si>
+  <si>
+    <t>GSE19697</t>
+  </si>
+  <si>
+    <t>An expression profile that predicts the therapeutic response of the basal-like breast cancer to neoadjuvant chemotherapy</t>
+  </si>
+  <si>
+    <t>A gene expression signature characterizes expression data from breast cancer samples of patients with pathological complete response (pCR) or residual disease (RD) following the neoadjuvant trial.|Several gene expression profiles have been reported to predict breast cancer response to neoadjuvant chemotherapy. These studies often consider breast cancer as a homogeneous entity, although higher rates of pathologic complete response (pCR) are known to occur within the basal-like subclass. We postulated that profiles with higher predictive accuracy could be derived from a subset analysis of basal-like tumors in isolation. Using a previously described ââintrinsicââ signature to differentiate breast tumor subclasses, we identified 50 basal-like tumors from two independent clinical trials associated with gene expression profile data. 24 tumor data sets (included in this GEO submission) were derived from a 119-patient neoadjuvant trial at our institution and an additional 26 tumor data sets were identified from a published data set (Hess et al. J Clin Oncol 24:4236â4244, 2006). The combined 50 basal-like tumors were partitioned to form a 37 sample training set with 13 sequestered for validation. Clinical surveillance occurred for a mean of 26 months. We identified a 23-gene profile which predicted pCR in basal-like breast cancers with 92% predictive accuracy in the sequestered validation data set. Furthermore, distinct cluster of patients with high rates of cancer recurrence was observed based on cluster analysis with the 23-gene signature. Disease-free survival analysis of these three clusters revealed significantly reduced survival in the patients of this high recurrence cluster. We identified a 23- gene signature which predicts response of basal-like breast cancer to neoadjuvant chemotherapy as well as disease-free survival. This signature is independent of tissue collection method and chemotherapeutic regimen.|Keywords: Disease state analysis</t>
+  </si>
+  <si>
+    <t>Core biopsies were obtained from 86 patients prior to neoadjuvant therapy out of which 70 fulfilled the requirements to undergo expression analysis (24 of these 70 were used in the published analysis). pCR was defined as no residual invasive disease in the breast or lymph nodes. Residual in situ carcinoma was also considered as pCR. RNA was extracted from snap frozen 14-gauge core samples obtained from pre-treatment tumors. Specimens containing more than 40% of tumor on histological examination were analyzed.</t>
+  </si>
+  <si>
+    <t>female; European; African American; biotin; anthracycline; zoledronic acid; chemotherapy</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">According to the Mondo Ontology entry for basal-like breast carcinoma, it is a "biologic subset of breast carcinoma defined by high expression of genes characteristic of basal epithelial cells, including KRT5 and KRT17, annexin 8, CX3CL1, and TRIM29, and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>usually by lack of expression of the estrogen receptor (ER), progesterone receptor (PR), and human epidermal growth factor receptor 2 (HER2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>." It is not surprising that this study was scored highly, even though we cannot say it is directly relevant.</t>
+    </r>
+  </si>
+  <si>
+    <t>Maybe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basal-like breast carcinoma should be tagged. </t>
+  </si>
+  <si>
+    <t>Yes to basal-like breast carcinoma. No to triple negative breast carcinoma. - DONE</t>
+  </si>
+  <si>
+    <t>Bipolar disorder</t>
+  </si>
+  <si>
+    <t>GSE54568</t>
+  </si>
+  <si>
+    <t>Expression data from human brain dorsolateral prefrontal cortex - including control samples and samples with major depression disorders (30 samples BA9_F)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Major depressive disorder</t>
     </r>
@@ -903,13 +736,108 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> is a heterogeneous illness with a mostly uncharacterized pathology. Large scale gene expression (transcriptome) analysis and genome-wide association studies (GWAS) for single nucleotide polymorphisms have generated a considerable amount of gene- and disease-related information, but heterogeneity and various sources of noise have limited the discovery of disease mechanisms. As systematic dataset integration is becoming essential, we developed methods and performed meta-clustering of gene coexpression links in 11 transcriptome studies from postmortem brains of human subjects with major depressive disorder (MDD) and non-psychiatric control subjects. We next sought enrichment in the top 50 meta-analyzed coexpression modules for genes otherwise identified by GWAS for various sets of disorders. One coexpression module of 88 genes was consistently and significantly associated with GWAS for MDD, other neuropsychiatric disorders and brain functions, and for medical illnesses with elevated clinical risk of depression, but not for other diseases (See publication for details).</t>
     </r>
   </si>
   <si>
-    <r>
+    <t>30 total samples in 15 pairs were analyzed in postmortem tissue from the dorsolateral prefrontal cortex.</t>
+  </si>
+  <si>
+    <t>biotin; dorsolateral prefrontal cortex; Depression; major depressive disorder</t>
+  </si>
+  <si>
+    <t>ChatGPT: "Bipolar Disorder (BD) and Major Depressive Disorder (MDD) are both mood disorders that share some common features, particularly involving depressive episodes, but they are distinct conditions with different diagnostic criteria." The models likely identified similarities in the ways these conditions are portrayed in dataset descriptions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not mentioned in GEO. Also, depression tag should be removed. </t>
+  </si>
+  <si>
+    <t>No - DONE</t>
+  </si>
+  <si>
+    <t>GSE54567</t>
+  </si>
+  <si>
+    <t>Expression data from human brain dorsolateral prefrontal cortex - including control samples and samples with major depression disorders (28 samples BA9_M)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Major depressive disorder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> is a heterogeneous illness with a mostly uncharacterized pathology. Large scale gene expression (transcriptome) analysis and genome-wide association studies (GWAS) for single nucleotide polymorphisms have generated a considerable amount of gene- and disease-related information, but heterogeneity and various sources of noise have limited the discovery of disease mechanisms. As systematic dataset integration is becoming essential, we developed methods and performed meta-clustering of gene coexpression links in 11 transcriptome studies from postmortem brains of human subjects with major depressive disorder (MDD) and non-psychiatric control subjects. We next sought enrichment in the top 50 meta-analyzed coexpression modules for genes otherwise identified by GWAS for various sets of disorders. One coexpression module of 88 genes was consistently and significantly associated with GWAS for MDD, other neuropsychiatric disorders and brain functions, and for medical illnesses with elevated clinical risk of depression, but not for other diseases (See publication for details).</t>
+    </r>
+  </si>
+  <si>
+    <t>28 total samples in 14 pairs were analyzed in postmortem tissue from the dorsolateral prefrontal cortex.</t>
+  </si>
+  <si>
+    <t>biotin; Depression; dorsolateral prefrontal cortex; major depressive disorder</t>
+  </si>
+  <si>
+    <t>GSE54575</t>
+  </si>
+  <si>
+    <t>Expression data from human brain orbital ventral prefrontal cortex - including control samples and samples with major depression disorders (24 samples NY_BA47)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Major depressive disorder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> is a heterogeneous illness with a mostly uncharacterized pathology. Large scale gene expression (transcriptome) analysis and genome-wide association studies (GWAS) for single nucleotide polymorphisms have generated a considerable amount of gene- and disease-related information, but heterogeneity and various sources of noise have limited the discovery of disease mechanisms. As systematic dataset integration is becoming essential, we developed methods and performed meta-clustering of gene coexpression links in 11 transcriptome studies from postmortem brains of human subjects with major depressive disorder (MDD) and non-psychiatric control subjects. We next sought enrichment in the top 50 meta-analyzed coexpression modules for genes otherwise identified by GWAS for various sets of disorders. One coexpression module of 88 genes was consistently and significantly associated with GWAS for MDD, other neuropsychiatric disorders and brain functions, and for medical illnesses with elevated clinical risk of depression, but not for other diseases (See publication for details).</t>
+    </r>
+  </si>
+  <si>
+    <t>24 total samples in 12 pairs were analyzed in postmortem tissue from the orbital ventral prefrontal cortex.</t>
+  </si>
+  <si>
+    <t>biotin; prefrontal cortex; Depression; major depressive disorder</t>
+  </si>
+  <si>
+    <t>Parkinson's disease</t>
+  </si>
+  <si>
+    <t>GSE33298</t>
+  </si>
+  <si>
+    <t>Gene expression analysis of human iPSC generated from pathogenic LRRK2 (G2019S) mutation bearing patients</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
       <t xml:space="preserve">Genetic mutations on leucine-rich repeat kinase 2 (LRRK2) have been associated with an increased risk of </t>
     </r>
     <r>
@@ -919,7 +847,6 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t>Parkinson's disease</t>
     </r>
@@ -929,7 +856,6 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">. The Gly2019Ser (G2019S) mutation on LRRK2 gene is a relatively common cause of familial Parkinson's disease in Caucasian population. In this study, </t>
     </r>
@@ -940,7 +866,6 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t>we generated human induced pluripotent stem cell (iPSC) lines from LRRK2 (G2019S) bearing patient fibroblasts by cell reprogramming</t>
     </r>
@@ -950,13 +875,69 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t>.|We performed global gene expression profiling of LRRK2 (G2019S) heterozygous and homozygous patient iPSC lines, and the corresponding fibroblast lines they originated from. An age-matched wildtype human fibroblast line and H1 human embryonic stem cell (ESC) line were used as controls.</t>
     </r>
   </si>
   <si>
-    <r>
+    <t>Microarray gene expression profiling was done to:  (1) Compare global gene expression differences between wildtype fibroblasts and fibroblasts from patients bearing homozygous and heterozygous LRRK2 (G2019S) mutation;  (2) Compare global gene expression differences between wildtype iPSC and iPSC generated from LRRK2 (G2019S) homozygous and heterozygous patients; (3) Check that all iPSC generated from wildtype and patients fibroblasts are in fact similar to human pluripotent ESC.</t>
+  </si>
+  <si>
+    <t>biotin; induced pluripotent stem cell line cell; fibroblast; embryonic stem cell; LRRK2 [human] leucine-rich repeat kinase 2</t>
+  </si>
+  <si>
+    <t>This study has relevance to Parkinson's disease, but it is not clear whether the cells came from individuals with Parkinson's disease or just those who had mutations in LRRK2.</t>
+  </si>
+  <si>
+    <t>We don't tag Parkinson's if we don't know if the cells come from patients with PD. The only thing that is clear is that there were mutations in LRRK2.</t>
+  </si>
+  <si>
+    <t>GSE54570</t>
+  </si>
+  <si>
+    <t>Expression data from human brain dorsolateral prefrontal cortex - including control samples and samples with major depression disorders (26 samples NY_BA9)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Major depressive disorder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> is a heterogeneous illness with a mostly uncharacterized pathology. Large scale gene expression (transcriptome) analysis and genome-wide association studies (GWAS) for single nucleotide polymorphisms have generated a considerable amount of gene- and disease-related information, but heterogeneity and various sources of noise have limited the discovery of disease mechanisms. As systematic dataset integration is becoming essential, we developed methods and performed meta-clustering of gene coexpression links in 11 transcriptome studies from postmortem brains of human subjects with major depressive disorder (MDD) and non-psychiatric control subjects. We next sought enrichment in the top 50 meta-analyzed coexpression modules for genes otherwise identified by GWAS for various sets of disorders. One coexpression module of 88 genes was consistently and significantly associated with GWAS for MDD, other neuropsychiatric disorders and brain functions, and for medical illnesses with elevated clinical risk of depression, but not for other diseases (See publication for details).</t>
+    </r>
+  </si>
+  <si>
+    <t>26 total samples in 13 pairs were analyzed in postmortem tissue from the dorsolateral prefrontal cortex.</t>
+  </si>
+  <si>
+    <t>ChatGPT: "Bipolar Disorder (BD) and Major Depressive Disorder (MDD) are both mood disorders that share some common features, particularly involving depressive episodes, but they are distinct conditions with different diagnostic criteria."</t>
+  </si>
+  <si>
+    <t>GSE216875</t>
+  </si>
+  <si>
+    <t>Reduced LYNX1 and epilepsy phenotype-related changes in transcriptome of human iPSC-derived neural progenitors modeling fragile X syndrome</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
       <t xml:space="preserve">Transcriptome analysis of RNA samples collected from human control and FXS </t>
     </r>
     <r>
@@ -966,7 +947,6 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t>iPS cell-derived neural progenitors</t>
     </r>
@@ -976,7 +956,6 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> at day 1 and day 7 of differentiation|Lack of fragile X mental retardation protein results in </t>
     </r>
@@ -987,7 +966,6 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t>fragile X syndrome</t>
     </r>
@@ -997,13 +975,85 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> (FXS), which is the most common inherited intellectual disability syndrome and serves as an excellent model disease to study molecular mechanisms behind neuropsychiatric comorbidities. We compared the transcriptomes of human neural progenitors (NPCs) generated from patient-derived induced pluripotent stem cells (iPSCs) of three FXS and three control male donors. Altered expression of RAD51C, PPIL3, GUCY1A2, MYD88, TRAPPC4, LYNX1, and GTF2A1L in FXS NPCs suggested changes related to triplet repeat instability, RNA splicing, testes development, and pathways previously shown to be affected in FXS. LYNX1 is a cholinergic break of tissue plasminogen activator (tPA)-dependent plasticity, and its reduced expression was consistent with augmented tPA-dependent radial glial process growth in NPCs derived from FXS iPSC lines. An analysis of gene expression in LYNX1-related signaling pathways revealed that NPCs derived from an FXS male with concomitant epilepsy differed from the other FXS NPCs. The differently expressed genes comprised several epilepsy-related genes, including genes shown to cause the auditory epilepsy phenotype in the murine model of FXS. Functional enrichment analysis highlighted regulation of insulin-like growth factor pathway in human NPCs modeling FXS with epilepsy. Our results link early gene expression changes of FXS NPCs with the pathogenesis of FXS and comorbid epilepsy.</t>
     </r>
   </si>
   <si>
-    <r>
+    <t>In this study, we analyzed gene expression profile of human iPS cell-derived neural progenitors reprogrammed from somatic cells of 3 healthy subjects and 3 patients diagnosed with FXS using the Affymetrix ClariomTM D Human array.</t>
+  </si>
+  <si>
+    <t>biotin; neural progenitor cell; fragile X syndrome</t>
+  </si>
+  <si>
+    <t>This is a study of fragile X syndrome. It is not directly relevant to Down syndrome, but it makes sense that it would be ranked highly. iPSCs are commonly studied in Down syndrome research.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not mentioned in GEO. </t>
+  </si>
+  <si>
+    <t>GSE85579</t>
+  </si>
+  <si>
+    <t>Genomic Regulation of Invasion by STAT3 in Triple Negative Breast Cancer</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Breast cancer is a heterogeneous disease comprised of four molecular subtypes defined by whether the tumor-originating cells are luminal or basal epithelial cells. Breast cancers arising from the luminal mammary duct often express estrogen receptor (ER), progesterone receptor (PR), and human epidermal growth receptor 2 (HER2). Tumors expressing ER and/or PR are treated with anti-hormonal therapies, while tumors overexpressing HER2 are targeted with monoclonal antibodies. Immunohistochemical detection of ER, PR, and HER2 receptors/proteins is a critical step in breast cancer diagnosis and guided treatment. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Breast tumors that do not express these proteins are known as  âtriple negative breast cancerâ (TNBC) and are typically basal-like. TNBCs are the most aggressive subtype, with the highest mortality rates and no targeted therapy, so there is a pressing need to identify important TNBC tumor regulators</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. The signal transducer and activator of transcription 3 (STAT3) transcription factor has been previously implicated as a constitutively active oncogene in TNBC. However, its direct regulatory gene targets and tumorigenic properties have not been well characterized. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>By integrating RNA-seq and ChIP-seq data from 2 TNBC tumors and 4 cell lines, we discovered</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> novel gene signatures directly regulated by STAT3 that were enriched for processes involving inflammation, immunity, and invasion in TNBC.  Functional analysis revealed that STAT3 has a key role regulating invasion and metastasis, a characteristic often associated with TNBC. Our findings suggest therapies targeting STAT3 may be important for preventing TNBC metastasis.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
       <t xml:space="preserve">ChIP-seq and RNA-seq experimentation were performed in </t>
     </r>
     <r>
@@ -1013,7 +1063,6 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t>TNBC cell lines: HCC70, MDA-MB-231, MDA-MB-468, MDA-MB-157, HCC1143</t>
     </r>
@@ -1023,60 +1072,33 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t>.  ChIP-seq was performed after 1hr vehicle control indcution (ethanol).  RNA-seq was performed after 96hr knockdown of STAT3 or non-targeting siRNA.  Tissue ChIP-seq was performed in two TNBC tumor samples: A139 and A137.</t>
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Breast cancer is a heterogeneous disease comprised of four molecular subtypes defined by whether the tumor-originating cells are luminal or basal epithelial cells. Breast cancers arising from the luminal mammary duct often express estrogen receptor (ER), progesterone receptor (PR), and human epidermal growth receptor 2 (HER2). Tumors expressing ER and/or PR are treated with anti-hormonal therapies, while tumors overexpressing HER2 are targeted with monoclonal antibodies. Immunohistochemical detection of ER, PR, and HER2 receptors/proteins is a critical step in breast cancer diagnosis and guided treatment. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Breast tumors that do not express these proteins are known as  âtriple negative breast cancerâ (TNBC) and are typically basal-like. TNBCs are the most aggressive subtype, with the highest mortality rates and no targeted therapy, so there is a pressing need to identify important TNBC tumor regulators</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. The signal transducer and activator of transcription 3 (STAT3) transcription factor has been previously implicated as a constitutively active oncogene in TNBC. However, its direct regulatory gene targets and tumorigenic properties have not been well characterized. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>By integrating RNA-seq and ChIP-seq data from 2 TNBC tumors and 4 cell lines, we discovered</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> novel gene signatures directly regulated by STAT3 that were enriched for processes involving inflammation, immunity, and invasion in TNBC.  Functional analysis revealed that STAT3 has a key role regulating invasion and metastasis, a characteristic often associated with TNBC. Our findings suggest therapies targeting STAT3 may be important for preventing TNBC metastasis.</t>
-    </r>
-  </si>
-  <si>
-    <r>
+    <t>MDA-MB-231 cell; breast cancer; HCC1143 cell; STAT3 [human] signal transducer and activator of transcription 3; HCC70 cell; MDA-MB-157 cell; MDA-MB-468 cell; Homozygous negative; MDAMB231 cell</t>
+  </si>
+  <si>
+    <t>It would make sense to tag this as triple negative breast cancer.</t>
+  </si>
+  <si>
+    <t>Cell lines are from TNBC so tag is not needed. See GSE95375.</t>
+  </si>
+  <si>
+    <t>GSE17612</t>
+  </si>
+  <si>
+    <t>Comparison of post-mortem tissue from brain BA10 region between schizophrenic and control patients.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
       <t>Analysis of gene expression in two large schizophrenia cohorts identifies multiple changes associated with nerve terminal function.|</t>
     </r>
     <r>
@@ -1086,7 +1108,6 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t>Schizophrenia</t>
     </r>
@@ -1096,13 +1117,102 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> is a severe psychiatric disorder with a world-wide prevalence of 1%. The pathophysiology of the illness is not understood, but is thought to have a strong genetic component with some environmental influences on aetiology. To gain further insight into disease mechanism, we used microarray technology to determine the expression of over 30 000 mRNA transcripts in post-mortem tissue from a brain region associated with the pathophysiology of the disease (Brodmann area 10: anterior prefrontal cortex) in 28 schizophrenic and 23 control patients.</t>
     </r>
   </si>
   <si>
-    <r>
+    <t>Post-mortem derived BA10 tissue from 28 schizophrenic and 23 control patients were compared. Age, gender, post-mortem delay and pH of brain lysates data were also captured.</t>
+  </si>
+  <si>
+    <t>biotin; Brodmann (1909) area 10; schizophrenia; female; male</t>
+  </si>
+  <si>
+    <t>ChatGPT: "Schizophrenia and bipolar disorder are both complex psychiatric conditions that impact cognitive function, mood, and perception. Despite being distinct diagnoses, they share several features and have overlapping aspects in terms of symptoms, genetics, and potentially, their treatment." The models likely identified similarities in the ways these conditions are portrayed in the dataset descriptions.</t>
+  </si>
+  <si>
+    <t>GSE36700</t>
+  </si>
+  <si>
+    <t>Gene expression profiles in synovial biopsies from patients with arthritis</t>
+  </si>
+  <si>
+    <t>Rheumatoid arthritis (RA) is an inflammatory joint disorder that results in progressive joint damage when insufficiently treated. In order to prevent joint destruction and functional disability in RA, early diagnosis and initiation of appropriate treatment with Disease-Modifying Antirheumatic Drugs (DMARDs) is needed. However, in daily clinical practice, patients may initially display symptoms of arthritis that do not fulfil the classification criteria for a definite diagnosis of RA, or any other joint disease, a situation called âUndifferentiated Arthritisâ (UA). Out of the patients with UA, 30 to 50% usually develop RA, and early identification of these remains a challenge.|At the present time, although several risk factors associated with the development of RA have been identified (6-9), a model that reliably predicts the probability of evolution of UA into RA in individual patients is lacking. In order to better identify early RA patients, an American College of Rheumatology (ACR)/European League Against Rheumatism (EULAR) collaboration recently developed new classification criteria. Although these criteria are more sensitive, the risk of over-diagnosis is an important issue to consider, especially in very early disease. In this context, the present study explores the feasibility of a molecular diagnosis of arthritis, based on the identification of disease-specific transcriptomic profiles in synovial biopsies from patients with arthritis according to the underlying condition.|In a previous study, we performed global analyses of gene expression in synovial biopsies from patients with RA, Systemic Lupus Erythematosus (SLE) and Osteoarthritis (OA), using high-density oligonucleotide spotted microarrays. We found that the gene expression profiles are strikingly different according to the underlying condition. Thus, the majority of the genes up-regulated in SLE are type I Interferon-inducible genes, as compared with the up-regulation genes involved in T cell and B cell activation in RA, and in extracellular matrix homeostasis in OA. Based on these results, similar analyses were performed in synovial biopsies from patients with seronegative arthritis (SA) and microcrystalline arthritis (MIC), in order to identify disease-specific molecular signatures.</t>
+  </si>
+  <si>
+    <t>GeneChipÂ® Human Genome U133 Plus 2.0 Arrays (Affymetrix UK Ltd., High Wycombe, UK) were hybridized in monoplicates with 10 Î¼g biotinylated cRNA, using synovial biopsy samples obtained in 4 patients with SA (based on the presence of psoriasis or x-ray evidence of sacro-iliacal joint involvement), 5 patients with MIC, based on the identification of urate or calcium pyrophosphate crystals in the synovial fluid, 7 patients with RA (ACR 1987 criteria), 4 patients with SLE (ACR criteria) and 5 patients with OA (based on x-ray evidence of osteoarthritis)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">male; biotin; female; synovial membrane of synovial joint  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>rheumatoid arthritis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>; arthritic joint disease; non-steroidal anti-inflammatory drug; osteoarthritis; systemic lupus erythematosus; colchicine</t>
+    </r>
+  </si>
+  <si>
+    <t>GSE149632</t>
+  </si>
+  <si>
+    <t>Phenotypic manifestation of alpha-synuclein strains from Parkinsonâs disease and multiple system atrophy in human dopaminergic neruons</t>
+  </si>
+  <si>
+    <t>Although Î±-synucleinis implicated in the pathogenesis of Parkinsonâs disease and related disorders, it remains unclear whether specific conformations or levels of Î±-synuclein assemblies are toxic and how they cause progressive loss of human dopaminergic neurons. To address this issue, we used iPSC-derived dopaminergic neurons with a-synuclein triplication or controls where endogenous Î±-synuclein was imprinted into synthetic or disease-relevant conformations. We used Î±-synuclein fibrils generated de novo or amplified from homogenates of brains affected with Parkinsonâs disease (n=3) .We found that a 2.5-fold increase in Î±-synuclein levels in Î±-synuclein gene triplication neurons promoted seeded aggregation in a dose and time-dependent fashion, which was associated with a further increase in Î±-synuclein gene expression.Transcriptomic analysis and isogenic correction of Î±-synuclein triplication revealed that intraneuronal Î±-synuclein levels solely and sufficiently explained vulnerability to cell death.</t>
+  </si>
+  <si>
+    <t>RNASeq experiment to compare the SNCA triplication iPSC lines (n=3 or 3 clones) or healthy control lines (n=3) at baseline and after induction of alpha-synuclein aggregation for 2 weeks. This was to investigate whether there are consistent changes upon synuclein aggregation in Triplication lines (clone 1, clone 3, clone 5) or healthy control lines (AH017, OX3, SFC840) when compared to their corresponding baseline (NSC) using the three different aggregation conditions (WTPFF, PDamp, MSAamp). A total of 24 different  human iPSC samples were sequenced on the Novaseq 6000 platform.</t>
+  </si>
+  <si>
+    <t>This series is now tagged with the "Parkinson disease" term from the Mondo Disease Ontology. Perhaps it was tagged after I downloaded the list of series associated with this tag.</t>
+  </si>
+  <si>
+    <t>done.</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>GSE178687</t>
+  </si>
+  <si>
+    <t>RNAseq analysis of DPSC-derived neurons from Neurotypical control subjects and PWS subjects</t>
+  </si>
+  <si>
+    <t>A major challenge to the study and treatment of neurogenetic syndromes is the difficulty in gaining access to live neurons from individuals with these disorders. Although other sources of stem cells are currently available for differentiation into neurons, these can involve invasive procedures and be difficult or expensive to generate limiting their use on a broad scale, especially for rare syndromes which may not be well represented in the local population.  Dental pulp stem cells (DPSC) are neural crest derived multipotent stem cells that reside deep the pulp of shed (baby) teeth and have the potential for broad use in the study of neurogenetic disease. Here, we use DPSC-derived neurons to investigate the transcriptional differences between neurotypical controls and Prader-Willi syndrome (PWS) conferred by uniparental disomy (UPD) versus deletion. Additionally, we investigated the increased autism incidence within the UPD genotype by sequencing PW-UPD patients with and without autism.  Using this data, we defined a PWS molecular signature and discovered a global reduction in mitochondrial transcripts in the PW-UPD +ASD neurons.</t>
+  </si>
+  <si>
+    <t>RNA-seq Analysis of DPSC derived neurons; 4 individuals per group of the following: neurotypical control, PWS deletion, PWS UPD -ASD, and PWS UPS +ASD</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
       <t xml:space="preserve">neuron; </t>
     </r>
     <r>
@@ -1112,7 +1222,6 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t>Prader-Willi syndrome</t>
     </r>
@@ -1122,13 +1231,36 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">  Prader-Willi syndrome due to paternal 15q11q13 deletion; Prader-Willi syndrome due to maternal uniparental disomy of chromosome 15; autism spectrum disorder</t>
     </r>
   </si>
   <si>
-    <r>
+    <t>This is not a Down syndrome (DS) dataset. The word "syndrome" may have caught the model's attention. DS is conferred by trisomy, whereas PWS is conferred by disomy, so the textual similarity might have caught the model's attention. Autism spectrum disorder is much more common in people with DS than the general population, so there may have been mention of this in DS dataset descriptions.</t>
+  </si>
+  <si>
+    <t>Down syndrome not mentioned?</t>
+  </si>
+  <si>
+    <t>GSE211103</t>
+  </si>
+  <si>
+    <t>Tissue and cell-type specific molecular and functional signatures of 16p11.2 reciprocal genomic disorder across mouse brain and human neuronal models.</t>
+  </si>
+  <si>
+    <t>Chromosome 16p11.2 reciprocal genomic disorder due to recurrent copy number variants (CNVs) involves intellectual disability, autism spectrum disorder (ASD), and schizophrenia but the responsible mechanisms are not known. To systemically dissect molecular effects, we performed transcriptome profiling of 350 libraries from six tissues (cortex, cerebellum, striatum, liver, brown fat, white fat) in mouse models harboring CNVs of the syntenic 7qF3 region, as well as cellular, transcriptional, and single-cell analyses in 54 isogenic neural stem cell, induced neuron, and cerebral organoid models of CRISPR-engineered 16p11.2 CNVs. Transcriptome-wide differentially expressed genes were largely tissue, cell-type, and dosage specific, though more effects were shared between deletion and duplication and across tissue than expected by chance. The broadest effects were observed in the cerebellum (2163 differentially expressed genes) and the greatest enrichments were associated with synaptic pathways in mouse cerebellum and human induced neurons. Pathway and co-expression analyses identified energy and RNA metabolism as shared processes and enrichment for ASD-associated/loss-of-function constraint/FMRP gene sets. Intriguingly, reciprocal 16p11.2 dosage changes resulted in consistent decrements in neurite and electrophysiological features, while single-cell profiling of organoids showed reciprocal alterations to the proportions of excitatory and inhibitory GABAergic neurons. Both neuronal ratios and gene expression changes in our organoid analyses point most directly to calretinin GABAergic inhibitory neurons and the excitatory/inhibitory balance as targets of disruption in 16p11.2 carriers that may contribute to changes in neurodevelopmental and cognitive function.  Collectively, our data indicate the genomic disorder involves disruption of multiple contributing biological processes, with relative impacts that are context-specific.</t>
+  </si>
+  <si>
+    <t>bulk RNAseq based transcriptomic analyses of six tissues from 16p11.2 deletion and duplication as well as control mouse models; single cell RNAseq based transcriptomic analyses of human iPSC-derived 16p11.2 deletion and duplication as well as control organoids.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
       <t xml:space="preserve">male; </t>
     </r>
     <r>
@@ -1138,7 +1270,6 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t>intellectual disability</t>
     </r>
@@ -1148,7 +1279,6 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">; schizophrenia; </t>
     </r>
@@ -1159,7 +1289,6 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t>autism spectrum disorder</t>
     </r>
@@ -1169,7 +1298,6 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">; neuron; GM08330 cell; KCTD13 [human] potassium channel tetramerization domain containing 13; proximal 16p11.2 microdeletion syndrome; chromosome 16p11.2 </t>
     </r>
@@ -1180,7 +1308,6 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t>duplication syndrome</t>
     </r>
@@ -1190,7 +1317,6 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">; </t>
     </r>
@@ -1201,7 +1327,6 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t>iPSC derived cell line</t>
     </r>
@@ -1211,13 +1336,60 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t>; Heterozygous</t>
     </r>
   </si>
   <si>
-    <r>
+    <t>This is not a Down syndrome (DS) dataset. Intellectual disability is a typical characteristic of people with DS and is surely mentioned in descriptions of DS datasets. Autism spectrum disorder is much more common in people with DS than the general population, so there may have been mention of this in DS dataset descriptions.</t>
+  </si>
+  <si>
+    <t>GSE18409</t>
+  </si>
+  <si>
+    <t>Expression data from Trk-overexpressing NB cell line SY5Y</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Neurotrophin receptors play a pivotal role in the biology and prognosis of neuroblastoma (NB). While expression of TrkA/NTRK1 confers a good prognosis to NB patients, expression of TrkB/NTRK2 is associated with unfavorable outcome. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">We have transfected the neurotrophin-receptor null cell line SY5Y </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>with either full-length TrkA or TrkB and performed transcriptional profiling to analyse the effects of Trk-expression without activation and in a time course after activation.</t>
+    </r>
+  </si>
+  <si>
+    <t>SY5Y transfected with either full length TrkA- or TrkB cDNA or vector control were cultivated in the absence or presence of their ligands NGF and BDNF, respectively. At the indicated time points cells were harvested and analysed using Affymetrix U95Av2 chips.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
       <t xml:space="preserve">biotin; </t>
     </r>
     <r>
@@ -1227,7 +1399,6 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t>SH-SY5Y cell</t>
     </r>
@@ -1237,39 +1408,24 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t>; Overexpression; NGF [human] nerve growth factor (beta polypeptide); BDNF [human] brain-derived neurotrophic factor; NTRK2 [human] neurotrophic tyrosine kinase, receptor, type 2; NTRK1 [human] neurotrophic tyrosine kinase, receptor, type 1</t>
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Neurotrophin receptors play a pivotal role in the biology and prognosis of neuroblastoma (NB). While expression of TrkA/NTRK1 confers a good prognosis to NB patients, expression of TrkB/NTRK2 is associated with unfavorable outcome. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">We have transfected the neurotrophin-receptor null cell line SY5Y </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>with either full-length TrkA or TrkB and performed transcriptional profiling to analyse the effects of Trk-expression without activation and in a time course after activation.</t>
-    </r>
-  </si>
-  <si>
-    <r>
+    <t>GSE25931</t>
+  </si>
+  <si>
+    <t>Gene Expression Profiling of Human Embryonic Neural Stem Cells and Dopaminergic Neurons from Adult Human Substantia Nigra</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
       <t xml:space="preserve">Our goal was to develop a list of genes that could be used effectively to highlight the genomic profiling of human embryonic neural stem cells (hENSCs), and to identify genes involved in the process of their differentiation to dopaminergic (DA) neurons. Our results showed that Agilent's Whole Human Genome Oligonucleotide Microarray permits the monitoring of at least 41000 genes as cells differentiate. In this study, we identified 13525 genes to be differentially expressed between undifferentiated hENSC and DA cells isolated from human substansia nigra. Approximately 3737 genes were up-regulated in the embryonic NSC, and 4116 genes were up-regulated in DA cells. Careful analysis of the emerged data using the web-accessible program named Database for Annotation, Visualization and Integrated Discovery (DAVID) has permitted us to distinguish several genes and pathways that are involved in dopaminergic differentiation, and to identify the crucial signaling pathways that direct the process of differentiation. Our study elucidated that genes related to midbrain development, such as Nr4a2 (nuclear receptor subfamily 4, group A, member 2, Nurr1) and En1 (engrailed 1), were increased to 3.76- and 6.41-folds, respectively. In addition, the transcriptions of the genes for DA neuron phenotype, such as Ddc (doapmine decarboxylase, AADC), Slc6a3 (solute carrier family 6, member 3, DAT), and Th (tyrosine hydroxylase), were significantly increased to 8.08, 4.01, and 5.91, respectively. As data accumulate with different populations and different methods of differentiation, one will perhaps be able to identify the key regulators and biomarkers that may allow selective selection of limited number of genes or transcription factors to be used for direct reprogramming of NSC into DA cells, with an ultimate goal of obtaining different types of allogenic neurons including personalized DA neurons to be used in replacement therapy for neurodegenerative diseases such as </t>
     </r>
     <r>
@@ -1279,7 +1435,6 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t>Parkinson's disease (PD)</t>
     </r>
@@ -1289,16 +1444,36 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t>.</t>
     </r>
   </si>
   <si>
+    <t>Two-condition experiment: hENSC S vs. DA cells. Biological replicates: 2 hENSC, and 2 DA neuron samples from human substantia nigra cells.</t>
+  </si>
+  <si>
+    <t>dopaminergic neuron; neuronal stem cell</t>
+  </si>
+  <si>
     <t>This is relevant to Parkinson's disease but is not a Parkinson's dataset. The summary mentions Parkinson's disease.</t>
   </si>
   <si>
-    <r>
+    <t xml:space="preserve">Not relevant to samples. </t>
+  </si>
+  <si>
+    <t>GSE36321</t>
+  </si>
+  <si>
+    <t>Gene expression analysis of H9 hESC derived neuron stem cells (NSC) harboring pathogenic LRRK2 (G2019S) mutation</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
       <t xml:space="preserve">Genetic mutations on leucine-rich repeat kinase 2 (LRRK2) have been associated with an </t>
     </r>
     <r>
@@ -1308,7 +1483,6 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t>increased risk of Parkinson's disease</t>
     </r>
@@ -1318,7 +1492,6 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">. The Gly2019Ser (G2019S) mutation on LRRK2 gene is a relatively common cause of familial Parkinson's disease in Caucasian population.|In this study, </t>
     </r>
@@ -1329,7 +1502,6 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t>we generated H9 hESC harboring LRRK2 (G2019S) mutation</t>
     </r>
@@ -1339,22 +1511,111 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> by gene knockin. Wildtype and LRRK2 mutant hESC were differentiated into NSC using a chemically defined protocol.</t>
     </r>
+  </si>
+  <si>
+    <t>LRRK2 mutant NSC were treated with or without the LRRK2 kinase specific inhibitor (LRRK2-IN-1). Global gene expression analysis was performed to assess the overall similarity of gene expression profiles among three NSC groups (wildtype; LRRK2 mutant; LRRK2 mutant with inhibitor treatment).</t>
+  </si>
+  <si>
+    <t>biotin; derived from H9 embryonic stem cell; neuronal stem cell; LRRK2 [human] leucine-rich repeat kinase 2; Overexpression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We don't tag Parkinson's in this case; if we don't know if the cells come from patients with PD and also only when all patients have PD. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In the Experimental Factor Ontology (EFO), "systemic juvenile idiopathic arthritis" is a sub-class of "juvenile idiopathic arthritis." </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>This series is the only one in Gemma with this tag.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Researchers were looking into that specific class of JIA. As </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"systemic JIA" is a more specific term</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> and best matches the researchers' interest, curators are expected to tag the more specific subclass term. General terms are not tagged as it is redundant. </t>
+    </r>
+  </si>
+  <si>
+    <t>Comments in response</t>
+  </si>
+  <si>
+    <t>This relationship could be identified via ontology-based inference.</t>
+  </si>
+  <si>
+    <t>Helped improve Gemma annotations, even if not for the medical condition we were evaluating.</t>
+  </si>
+  <si>
+    <t>It was tagged after we made the predictions.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">dopaminergic neuron; Overexpression; SNCA triplication; amyloid fibril; multiple system atrophy; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Parkinson disease</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>; SNCA [human] synuclein, alpha (non A4 component of amyloid precursor)</t>
+    </r>
+  </si>
+  <si>
+    <t>Others in Gemma that are annotated this way, such as GSE197243 and GSE90587 and GSE220046.</t>
+  </si>
+  <si>
+    <t>Others in Gemma are annotated this way, such as GSE79721 and GSE79332 and GSE220017.</t>
+  </si>
+  <si>
+    <t>Others in Gemma are annotated this way, such as GSE197243 and GSE90587 and GSE220046.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1363,7 +1624,18 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1386,12 +1658,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1399,7 +1674,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1412,20 +1687,20 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Sheets">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="4F81BD"/>
@@ -1449,82 +1724,22 @@
         <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="0000FF"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Calibri"/>
+        <a:cs typeface="Calibri"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:ea typeface="Calibri"/>
+        <a:cs typeface="Calibri"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1533,160 +1748,131 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -1698,27 +1884,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="52.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="54.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="30.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="35.6640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="9.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.83203125" style="2"/>
+    <col min="1" max="1" width="25.83203125" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="52.33203125" customWidth="1"/>
+    <col min="4" max="4" width="54.5" customWidth="1"/>
+    <col min="5" max="5" width="30.5" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="35.5" customWidth="1"/>
+    <col min="8" max="8" width="35.6640625" customWidth="1"/>
+    <col min="9" max="9" width="9.83203125" customWidth="1"/>
+    <col min="10" max="10" width="34.33203125" customWidth="1"/>
+    <col min="11" max="11" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1746,733 +1931,933 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>184</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F2" s="2">
         <v>22</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>131</v>
+        <v>17</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>128</v>
+        <v>18</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F3" s="2">
         <v>17</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>132</v>
+        <v>25</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F4" s="2">
         <v>17</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>102</v>
+        <v>33</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>101</v>
+        <v>182</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>128</v>
+        <v>18</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>185</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="350" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="350" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>138</v>
+        <v>38</v>
       </c>
       <c r="F5" s="2">
         <v>16</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>103</v>
+        <v>39</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>139</v>
+        <v>40</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>128</v>
+        <v>18</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>189</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="395" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="395" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="F6" s="2">
         <v>14</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>105</v>
+        <v>47</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>140</v>
+        <v>48</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>128</v>
+        <v>18</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>189</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="288" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="288" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="F7" s="2">
         <v>13</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>106</v>
+        <v>54</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>128</v>
+        <v>18</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>189</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="272" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="272" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>142</v>
+        <v>60</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="F8" s="2">
         <v>11</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>141</v>
+        <v>62</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>133</v>
+        <v>63</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="380" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="380" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>144</v>
+        <v>67</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>143</v>
+        <v>68</v>
       </c>
       <c r="F9" s="2">
         <v>11</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="380" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="380" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>145</v>
+        <v>74</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="F10" s="2">
         <v>11</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>128</v>
+        <v>18</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>189</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="F11" s="2">
         <v>11</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>117</v>
+        <v>83</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>186</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="272" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="272" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>146</v>
+        <v>90</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="F12" s="2">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>186</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="272" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="272" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>146</v>
+        <v>98</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="F13" s="2">
         <v>9</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>186</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="272" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="272" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="F14" s="2">
         <v>9</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>186</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="224" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="224" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>147</v>
+        <v>109</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="F15" s="2">
         <v>9</v>
       </c>
       <c r="G15" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="272" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>117</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="272" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="F16" s="2">
         <v>8</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>118</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>186</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>66</v>
+        <v>119</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>68</v>
+        <v>122</v>
       </c>
       <c r="F17" s="2">
         <v>8</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>69</v>
+        <v>126</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>70</v>
+        <v>127</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="F18" s="2">
         <v>8</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>128</v>
+        <v>18</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>190</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="176" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="176" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>71</v>
+        <v>133</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>72</v>
+        <v>134</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>73</v>
+        <v>136</v>
       </c>
       <c r="F19" s="2">
         <v>7</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>74</v>
+        <v>139</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>75</v>
+        <v>140</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>76</v>
+        <v>141</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="F20" s="2">
         <v>7</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="272" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="272" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>78</v>
+        <v>144</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>81</v>
+        <v>147</v>
       </c>
       <c r="F21" s="2">
         <v>7</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>125</v>
+        <v>188</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>128</v>
+        <v>18</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>187</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="288" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="288" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>82</v>
+        <v>151</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>83</v>
+        <v>152</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>84</v>
+        <v>153</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>85</v>
+        <v>154</v>
       </c>
       <c r="F22" s="2">
         <v>6</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>86</v>
+        <v>158</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>87</v>
+        <v>159</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>88</v>
+        <v>160</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>89</v>
+        <v>161</v>
       </c>
       <c r="F23" s="2">
         <v>6</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="128" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="128" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>90</v>
+        <v>164</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>91</v>
+        <v>165</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>92</v>
+        <v>167</v>
       </c>
       <c r="F24" s="2">
         <v>6</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>128</v>
+        <v>18</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>191</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="409" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="408.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>93</v>
+        <v>169</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>94</v>
+        <v>170</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>95</v>
+        <v>172</v>
       </c>
       <c r="F25" s="2">
         <v>6</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>129</v>
+        <v>173</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="144" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="144" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>96</v>
+        <v>176</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>97</v>
+        <v>177</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>98</v>
+        <v>179</v>
       </c>
       <c r="F26" s="2">
         <v>6</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <autoFilter ref="A1:L26" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>